--- a/Simulation and Modeling/Offline 4 Single Server Queueing System By Excel/src/1705003.xlsx
+++ b/Simulation and Modeling/Offline 4 Single Server Queueing System By Excel/src/1705003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahdi\Desktop\4-2-Qodes\Simulation and Modeling\Offline 4 Single Server Queueing System By Excel\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DDEB44-3F5A-4E09-8C09-DF4F18416EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DDE5AA-A7C5-4A41-88E4-584DD1158001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{103B3BC9-C3AA-45F9-ACDC-8DC6AEE302B8}"/>
   </bookViews>
